--- a/Yelp_Results.xlsx
+++ b/Yelp_Results.xlsx
@@ -11,6 +11,68 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+  <si>
+    <t>&lt;meta content="Get Off My Nerves Chiropractic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Capital City Chiropractic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Leist Chiropractic Clinic - Baker, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Zachary Chiropractic Clinic - Zachary, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Sonnier Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Louisiana Chiropractic - Port Allen, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Prewitt Chiropractic Clinic - Baker, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Ozark Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Spencer’s Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Community Chiropractic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Chiro-Practical - Zachary, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Family Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Massage Emporium - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Core Chiropractic Clinic - Prairieville, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Underwood Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Family and Sports Chiropractic - Saint Francisville, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Spine and Sport Rehab Center - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Chiropractic Sports &amp;amp; Injury Center - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;meta content="Capitol Spine and Rehabilitation - Baton Rouge, LA" property="og:title"/&gt;</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +402,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Yelp_Results.xlsx
+++ b/Yelp_Results.xlsx
@@ -16,61 +16,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t>&lt;meta content="Get Off My Nerves Chiropractic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Capital City Chiropractic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Leist Chiropractic Clinic - Baker, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Zachary Chiropractic Clinic - Zachary, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Sonnier Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Louisiana Chiropractic - Port Allen, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Prewitt Chiropractic Clinic - Baker, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Ozark Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Spencer’s Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Community Chiropractic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Chiro-Practical - Zachary, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Family Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Massage Emporium - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Core Chiropractic Clinic - Prairieville, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Underwood Chiropractic Clinic - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Family and Sports Chiropractic - Saint Francisville, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Spine and Sport Rehab Center - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Chiropractic Sports &amp;amp; Injury Center - Baton Rouge, LA" property="og:title"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;meta content="Capitol Spine and Rehabilitation - Baton Rouge, LA" property="og:title"/&gt;</t>
+    <t>Get Off My Nerves Chiropractic</t>
+  </si>
+  <si>
+    <t>Capital City Chiropractic</t>
+  </si>
+  <si>
+    <t>Leist Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Zachary Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Sonnier Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Louisiana Chiropractic</t>
+  </si>
+  <si>
+    <t>Prewitt Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Ozark Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Spencer’s Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Community Chiropractic</t>
+  </si>
+  <si>
+    <t>Chiro-Practical</t>
+  </si>
+  <si>
+    <t>Family Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Massage Emporium</t>
+  </si>
+  <si>
+    <t>Core Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Underwood Chiropractic Clinic</t>
+  </si>
+  <si>
+    <t>Family and Sports Chiropractic</t>
+  </si>
+  <si>
+    <t>Spine and Sport Rehab Center</t>
+  </si>
+  <si>
+    <t>Chiropractic Sports &amp; Injury Center</t>
+  </si>
+  <si>
+    <t>Capitol Spine and Rehabilitation</t>
   </si>
 </sst>
 </file>

--- a/Yelp_Results.xlsx
+++ b/Yelp_Results.xlsx
@@ -14,63 +14,244 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Get Off My Nerves Chiropractic</t>
   </si>
   <si>
+    <t>10979 Coursey Blvd
+Ste J, Baton Rouge, LA, 70816, US</t>
+  </si>
+  <si>
+    <t>+12252959993</t>
+  </si>
+  <si>
+    <t>LocalBusiness</t>
+  </si>
+  <si>
+    <t>Specialties: Chiropractic, Deep Tissue Massage, Decompression Established in 2003.  Dr. Caillouet graduated from Tulane in 1998 majoring in anatomy and physiology as well as exercise sports medicine. In continuing her education she attended…</t>
+  </si>
+  <si>
     <t>Capital City Chiropractic</t>
   </si>
   <si>
+    <t>10985 N Harrells Ferry Rd, Baton Rouge, LA, 70816, US</t>
+  </si>
+  <si>
+    <t>+12252189499</t>
+  </si>
+  <si>
+    <t>Chiropractors in Baton Rouge, LA</t>
+  </si>
+  <si>
     <t>Leist Chiropractic Clinic</t>
   </si>
   <si>
+    <t>1866 Main St, Baker, LA, 70714, US</t>
+  </si>
+  <si>
+    <t>+12257744916</t>
+  </si>
+  <si>
+    <t>Chiropractors in Baker, LA</t>
+  </si>
+  <si>
     <t>Zachary Chiropractic Clinic</t>
   </si>
   <si>
+    <t>1121 Church St
+Ste B, Zachary, LA, 70791, US</t>
+  </si>
+  <si>
+    <t>+12256540048</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>Specialties: Specializing in:
+- Chiropractors &amp; Chiropractic Services Established in 1996.  Zachary Chiropractic Clinic has been in business for over 18 years in Zachary.</t>
+  </si>
+  <si>
     <t>Sonnier Chiropractic Clinic</t>
   </si>
   <si>
+    <t>143 Lee Dr
+Ste 1, Baton Rouge, LA, 70808, US</t>
+  </si>
+  <si>
+    <t>+12257662952</t>
+  </si>
+  <si>
     <t>Louisiana Chiropractic</t>
   </si>
   <si>
+    <t>751 Court St, Port Allen, LA, 70767, US</t>
+  </si>
+  <si>
+    <t>+12253361920</t>
+  </si>
+  <si>
+    <t>Chiropractors in Port Allen, LA</t>
+  </si>
+  <si>
     <t>Prewitt Chiropractic Clinic</t>
   </si>
   <si>
+    <t>3121 Van Buren St
+Ste B, Baker, LA, 70714, US</t>
+  </si>
+  <si>
+    <t>+12257745566</t>
+  </si>
+  <si>
     <t>Ozark Chiropractic Clinic</t>
   </si>
   <si>
+    <t>1857 Wooddale Blvd, Baton Rouge, LA, 70806, US</t>
+  </si>
+  <si>
+    <t>+12259635929</t>
+  </si>
+  <si>
+    <t>Specialties: We routinely provide chiropractic care and massage therapy for patients with a variety of conditions:
+* Auto accidents
+* Work Injuries
+* Slips and falls
+* Swollen or Stiff Joints
+* Muscle pain and/or spasm
+* Carpal tunnel…</t>
+  </si>
+  <si>
     <t>Spencer’s Chiropractic Clinic</t>
   </si>
   <si>
+    <t>8620 Scotland Ave, Baton Rouge, LA, 70807, US</t>
+  </si>
+  <si>
+    <t>+12257747870</t>
+  </si>
+  <si>
     <t>Community Chiropractic</t>
   </si>
   <si>
+    <t>12590 Perkins Rd, Baton Rouge, LA, 70810, US</t>
+  </si>
+  <si>
+    <t>+12257673151</t>
+  </si>
+  <si>
+    <t>Specialties: Auto Accidents * Weekend Warrior Aillments * Worker Injuries * Sports Injuries * Headaches * Preventive Care * Most Insurance plans accepted</t>
+  </si>
+  <si>
     <t>Chiro-Practical</t>
   </si>
   <si>
+    <t>5626 Main St, Zachary, LA, 70791, US</t>
+  </si>
+  <si>
+    <t>+12256580500</t>
+  </si>
+  <si>
+    <t>Specialties: We are a chiropractic clinic specialized in low back pain, Neck pain, Sciatica, Sinus troubles, Headaches, ETC. We off you a relaxing environment for your care. We take most major insurances. Established in 2003.  Dr. Matthew…</t>
+  </si>
+  <si>
     <t>Family Chiropractic Clinic</t>
   </si>
   <si>
+    <t>3855 N Acadian Thruway, Baton Rouge, LA, 70805, US</t>
+  </si>
+  <si>
+    <t>+12253564449</t>
+  </si>
+  <si>
+    <t>Specialties: Been hurt?  Call Dr. Plantz
+For well over 35 years, the staff at Family Chiropractic Clinic has been providing comprehensive and compassionate chiropractic services to patients throughout the greater Baton Rouge community.…</t>
+  </si>
+  <si>
     <t>Massage Emporium</t>
   </si>
   <si>
+    <t>240 Laurel St
+Ste 101, Baton Rouge, LA, 70801, US</t>
+  </si>
+  <si>
+    <t>+12253870060</t>
+  </si>
+  <si>
+    <t>Specialties: We are a specialty massage clinic and day spa offering high quality massage and esthetics treatments at affordable prices.
+Located at 240 Laurel Street, Suite 101, in the heart of downtown Baton Rouge, The Massage Emporium…</t>
+  </si>
+  <si>
     <t>Core Chiropractic Clinic</t>
   </si>
   <si>
+    <t>16573 Airline Hwy, Prairieville, LA, 70769, US</t>
+  </si>
+  <si>
+    <t>+12253136489</t>
+  </si>
+  <si>
+    <t>Specialties: Aches, Pains or Feeling Unhealthy? Let's Get to the Core of It
+Core Chiropractic Clinic is located in Prairieville, LA. Dr Blanchard, a Prairieville Chiropractor, is dedicated to giving his patients the best possible…</t>
+  </si>
+  <si>
     <t>Underwood Chiropractic Clinic</t>
   </si>
   <si>
+    <t>11851 Coursey Blvd
+Ste A, Baton Rouge, LA, 70816, US</t>
+  </si>
+  <si>
+    <t>+12252931700</t>
+  </si>
+  <si>
     <t>Family and Sports Chiropractic</t>
   </si>
   <si>
+    <t>5935 Commerce St, Saint Francisville, LA, 70775, US</t>
+  </si>
+  <si>
+    <t>+12256354172</t>
+  </si>
+  <si>
+    <t>Specialties: Dr. Links provides research based treatment and multidisciplinary approach to patient care for treatment of neck pain, back pain, sciatica, sports injuries, along with knee, feet, shoulder, and elbow pain. Dr. Links is a…</t>
+  </si>
+  <si>
     <t>Spine and Sport Rehab Center</t>
   </si>
   <si>
+    <t>7417 Jefferson Hwy, Baton Rouge, LA, 70806, US</t>
+  </si>
+  <si>
+    <t>+12259243989</t>
+  </si>
+  <si>
+    <t>Specialties: The professionals at Chiropractic Spine and Sports Rehab Center possess a unique combination of skill and expertise to provide you with unsurpassed care. As certified physicians in Cox decompression treatment, we offer…</t>
+  </si>
+  <si>
     <t>Chiropractic Sports &amp; Injury Center</t>
   </si>
   <si>
+    <t>6160 Perkins Rd
+Ste 130, Baton Rouge, LA, 70808, US</t>
+  </si>
+  <si>
+    <t>+12257663031</t>
+  </si>
+  <si>
     <t>Capitol Spine and Rehabilitation</t>
+  </si>
+  <si>
+    <t>422 Colonial Dr
+Ste B, Baton Rouge, LA, 70806, US</t>
+  </si>
+  <si>
+    <t>+12259261900</t>
+  </si>
+  <si>
+    <t>Established in 2008.  Our physicians combined have 20 years of experience! 
+Cox Flexion/ Distraction Spinal Decompression (Certified) in Chiropractic Medicine, Graston Technique (Certified), Kinesio Taping (Certified), Physical Therapy,…</t>
   </si>
 </sst>
 </file>
@@ -402,72 +583,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T2"/>
+  <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>4.5</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
         <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
